--- a/DATA_LINEAGE_COMPLETE.xlsx
+++ b/DATA_LINEAGE_COMPLETE.xlsx
@@ -927,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -939,8 +939,10 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -961,10 +963,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Transformation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Value Mappings</t>
         </is>
@@ -983,11 +995,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp225__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1002,11 +1020,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp258__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1021,11 +1045,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp253__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1040,15 +1070,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf515__LBW0054</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>cells/μL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CD3+4+ absolute count</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1063,15 +1099,21 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf513__LBW0054</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>CD3+4+ percent</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1086,11 +1128,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp216__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1105,11 +1153,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp114__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1124,11 +1178,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp110__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1143,11 +1203,13 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv | Column: patid__L_RNAFIN</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1162,11 +1224,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp158__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10^9/L</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1181,11 +1249,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp194__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1200,11 +1274,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp268__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1219,11 +1299,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
+          <t>File: L_RNAFIN.csv | Column: copies__L_RNAFIN</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>copies/mL</t>
+        </is>
+      </c>
       <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1238,11 +1324,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1257,11 +1345,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp225__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1276,11 +1370,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp258__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1295,11 +1395,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp253__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1314,15 +1420,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf515__LBW0054</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>cells/μL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>CD3+4+ absolute count</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1337,15 +1449,21 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf513__LBW0054</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>CD3+4+ percent</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1360,11 +1478,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp216__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1379,11 +1503,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp114__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1398,11 +1528,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp110__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1417,11 +1553,13 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv | Column: patid__L_RNAFIN</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1436,11 +1574,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp158__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10^9/L</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1455,11 +1599,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp194__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1474,11 +1624,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp268__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1493,11 +1649,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>File: L_RNAFIN.csv | Column: copies__L_RNAFIN</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>copies/mL</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,11 +1674,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1531,11 +1695,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp225__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1550,11 +1720,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp258__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1569,11 +1745,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp253__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1588,15 +1770,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf515__LBW0054</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>cells/μL</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>CD3+4+ absolute count</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1611,15 +1799,21 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LBW0054.csv | Column: tf513__LBW0054</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
           <t>CD3+4+ percent</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1634,11 +1828,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp216__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1653,11 +1853,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp114__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1672,11 +1878,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp110__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -1691,11 +1903,13 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv | Column: patid__L_RNAFIN</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1710,11 +1924,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>File: LBW0057A.csv | Column: cp158__LBW0057A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10^9/L</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -1729,11 +1949,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp194__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
       <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1748,11 +1974,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>File: LBW0057B.csv | Column: cp268__LBW0057B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1767,11 +1999,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>File: L_RNAFIN.csv | Column: copies__L_RNAFIN</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>copies/mL</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1786,11 +2024,13 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: L_RNAFIN.csv</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -1808,12 +2048,14 @@
           <t>LT001.cd4res (primary); SS005.cd4result (secondary)</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>CD4 cell count from lab tests</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1831,12 +2073,14 @@
           <t>FV001.vloadresult</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>HIV viral load from chart abstraction</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1854,12 +2098,14 @@
           <t>AD001.vcode</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>Visit schedule from main visits table</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>1.0→Screening; 2.0→Month 3; 3.0→Month 6; 4.0→Month 9; 5.0→Month 12 (and 3 more)</t>
         </is>
@@ -1883,6 +2129,8 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -1902,6 +2150,8 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1921,6 +2171,8 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -1940,6 +2192,8 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1959,6 +2213,8 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -1978,6 +2234,8 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1997,6 +2255,8 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2016,6 +2276,8 @@
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2035,6 +2297,8 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2054,6 +2318,8 @@
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2073,6 +2339,8 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -2092,6 +2360,8 @@
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2111,6 +2381,8 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -2130,6 +2402,8 @@
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2149,6 +2423,8 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -2168,6 +2444,8 @@
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2187,6 +2465,8 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -2206,6 +2486,8 @@
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2225,6 +2507,8 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -2244,6 +2528,8 @@
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2263,6 +2549,8 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -2282,6 +2570,8 @@
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2301,6 +2591,8 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -2320,6 +2612,8 @@
       </c>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2339,6 +2633,8 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -2358,6 +2654,8 @@
       </c>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2377,6 +2675,8 @@
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -2396,6 +2696,8 @@
       </c>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2415,6 +2717,8 @@
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -2434,6 +2738,8 @@
       </c>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2453,6 +2759,8 @@
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -2472,6 +2780,8 @@
       </c>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2491,6 +2801,8 @@
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -2510,6 +2822,8 @@
       </c>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2529,6 +2843,8 @@
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -2548,6 +2864,8 @@
       </c>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2567,6 +2885,8 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -2586,6 +2906,8 @@
       </c>
       <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2605,6 +2927,8 @@
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -2624,6 +2948,8 @@
       </c>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2643,6 +2969,8 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -2662,6 +2990,8 @@
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2681,6 +3011,8 @@
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -2700,6 +3032,8 @@
       </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2719,6 +3053,8 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -2738,6 +3074,8 @@
       </c>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2757,6 +3095,8 @@
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -2776,6 +3116,8 @@
       </c>
       <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2795,6 +3137,8 @@
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -2814,6 +3158,8 @@
       </c>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2833,6 +3179,8 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -2852,6 +3200,8 @@
       </c>
       <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2871,6 +3221,8 @@
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -2890,6 +3242,8 @@
       </c>
       <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2909,6 +3263,8 @@
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -2928,6 +3284,8 @@
       </c>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="2" t="inlineStr"/>
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2947,6 +3305,8 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -2966,6 +3326,8 @@
       </c>
       <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2980,11 +3342,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>File: DEM_fmt.csv | Column: age</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
@@ -2999,11 +3367,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRalt</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3018,11 +3392,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRast</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -3037,11 +3417,17 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRcre</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3056,11 +3442,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRhct</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
@@ -3075,11 +3467,17 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRhgb</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
       <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3094,11 +3492,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRmcv</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>fL</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
@@ -3113,11 +3517,13 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: publicid</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
       <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3132,11 +3538,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRpho</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -3151,11 +3563,17 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRpla</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>10^9/L</t>
+        </is>
+      </c>
       <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3170,11 +3588,13 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: DEM_fmt.csv | Column: DEMsex</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -3189,11 +3609,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRtbi</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
       <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3208,11 +3634,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: visit</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
@@ -3227,11 +3655,17 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRwbc</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>10^9/L</t>
+        </is>
+      </c>
       <c r="E118" s="2" t="inlineStr"/>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3246,11 +3680,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>File: DEM_fmt.csv | Column: age</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
@@ -3265,11 +3705,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr"/>
+          <t>File: calculated</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>kg/m2</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3284,11 +3730,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: LLRcre</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
@@ -3303,11 +3751,13 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: LLRcrcl</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr"/>
       <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3322,11 +3772,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRhtcm</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
@@ -3341,11 +3797,13 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: publicid</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
       <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3360,11 +3818,13 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: DEM_fmt.csv | Column: DEMsex</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -3379,11 +3839,13 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
+          <t>File: LLR_fmt.csv | Column: visit</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
       <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3398,11 +3860,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>File: LLR_fmt.csv | Column: LLRwtkg</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -3417,15 +3885,17 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
+          <t>Multiple sources (10 visit files): Screening: sc_bp_sys_v2_3, Day 0: pv60_sys, Day 3: d3_sys... and 7 more</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr"/>
+      <c r="E128" s="2" t="inlineStr"/>
+      <c r="F128" s="2" t="inlineStr">
         <is>
           <t>Systolic blood pressure from each visit file</t>
         </is>
       </c>
-      <c r="E128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3440,15 +3910,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
+          <t>Multiple sources (10 visit files): Screening: sc_temp_v2_3, Day 0: pv60_temp, Day 3: d3_temp... and 7 more</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
         <is>
           <t>Body temperature - excellent for climate-health analysis</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
@@ -3463,11 +3935,21 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr"/>
-      <c r="E130" s="2" t="inlineStr"/>
+          <t>File: Listing 11 - Haematology All Randomised Set.csv | Column: result__CD4 cell count</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>cells/uL</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Direct numeric extraction</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3482,11 +3964,21 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+          <t>File: Listing 11 - Haematology All Randomised Set.csv | Column: result__hemoglobin</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Direct numeric extraction</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
@@ -3501,11 +3993,21 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr"/>
-      <c r="E132" s="2" t="inlineStr"/>
+          <t>File: Listing 14 - Vitals Signs All Randomised Set.csv | Column: systolic_BP</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>mmHg</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>Direct numeric extraction</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr"/>
+      <c r="G132" s="2" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3520,11 +4022,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Multiple sources</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+          <t>File: Listing 09 - HIV-1 RNA All Randomised Set.csv | Column: result</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>copies/mL</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Text parsing (Not detected-&gt;0, &lt;X-&gt;X)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
